--- a/FOSS4Spec_2022-11-01.xlsx
+++ b/FOSS4Spec_2022-11-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanh/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B44FFA-7F01-F748-9546-1AC73F29385B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D98FB7C-3651-5B4B-8E63-089BE0001A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="700" windowWidth="23700" windowHeight="12380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="660" windowWidth="23700" windowHeight="12380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="1116">
   <si>
     <t>name</t>
   </si>
@@ -3023,9 +3023,6 @@
   </si>
   <si>
     <t>https://github.com/NSLS-II/edrixs</t>
-  </si>
-  <si>
-    <t>NS</t>
   </si>
   <si>
     <t>NIRX</t>
@@ -3432,12 +3429,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3457,9 +3453,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3497,9 +3493,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3532,26 +3528,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3584,26 +3563,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3779,10 +3741,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A135" sqref="A135:XFD135"/>
+      <selection pane="bottomLeft" activeCell="A228" sqref="A228:XFD228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3840,7 +3802,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -3866,7 +3828,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -3996,7 +3958,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G8" t="s">
         <v>338</v>
@@ -4129,7 +4091,7 @@
         <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H13" t="s">
         <v>68</v>
@@ -4155,7 +4117,7 @@
         <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H14" t="s">
         <v>73</v>
@@ -4181,7 +4143,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H15" t="s">
         <v>73</v>
@@ -4204,7 +4166,7 @@
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -4334,7 +4296,7 @@
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -4360,7 +4322,7 @@
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G22" t="s">
         <v>107</v>
@@ -4415,7 +4377,7 @@
         <v>116</v>
       </c>
       <c r="G24" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H24" t="s">
         <v>117</v>
@@ -4438,7 +4400,7 @@
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G25" t="s">
         <v>122</v>
@@ -4779,7 +4741,7 @@
         <v>194</v>
       </c>
       <c r="G38" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
@@ -4802,7 +4764,7 @@
         <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G39" t="s">
         <v>198</v>
@@ -5065,7 +5027,7 @@
         <v>245</v>
       </c>
       <c r="G49" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H49" t="s">
         <v>246</v>
@@ -5192,7 +5154,7 @@
         <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G54" t="s">
         <v>90</v>
@@ -5221,7 +5183,7 @@
         <v>274</v>
       </c>
       <c r="G55" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H55" t="s">
         <v>11</v>
@@ -5429,7 +5391,7 @@
         <v>307</v>
       </c>
       <c r="G63" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H63" t="s">
         <v>308</v>
@@ -5530,7 +5492,7 @@
         <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G67" t="s">
         <v>31</v>
@@ -5582,7 +5544,7 @@
         <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G69" t="s">
         <v>13</v>
@@ -5741,7 +5703,7 @@
         <v>358</v>
       </c>
       <c r="G75" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H75" t="s">
         <v>11</v>
@@ -5923,7 +5885,7 @@
         <v>389</v>
       </c>
       <c r="G82" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H82" t="s">
         <v>11</v>
@@ -5975,7 +5937,7 @@
         <v>399</v>
       </c>
       <c r="G84" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H84" t="s">
         <v>11</v>
@@ -6001,7 +5963,7 @@
         <v>402</v>
       </c>
       <c r="G85" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H85" t="s">
         <v>11</v>
@@ -6027,7 +5989,7 @@
         <v>405</v>
       </c>
       <c r="G86" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H86" t="s">
         <v>11</v>
@@ -6154,7 +6116,7 @@
         <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G91" t="s">
         <v>24</v>
@@ -6336,7 +6298,7 @@
         <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G98" t="s">
         <v>13</v>
@@ -6365,7 +6327,7 @@
         <v>460</v>
       </c>
       <c r="G99" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H99" t="s">
         <v>11</v>
@@ -6388,7 +6350,7 @@
         <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G100" t="s">
         <v>13</v>
@@ -6414,7 +6376,7 @@
         <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G101" t="s">
         <v>13</v>
@@ -6440,7 +6402,7 @@
         <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G102" t="s">
         <v>135</v>
@@ -6596,7 +6558,7 @@
         <v>36</v>
       </c>
       <c r="F108" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G108" t="s">
         <v>135</v>
@@ -6622,7 +6584,7 @@
         <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G109" t="s">
         <v>13</v>
@@ -6648,7 +6610,7 @@
         <v>36</v>
       </c>
       <c r="F110" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G110" t="s">
         <v>13</v>
@@ -6658,8 +6620,8 @@
       <c r="A111" t="s">
         <v>503</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>1105</v>
+      <c r="B111" t="s">
+        <v>1104</v>
       </c>
       <c r="C111" t="s">
         <v>504</v>
@@ -6681,10 +6643,10 @@
       <c r="A112" t="s">
         <v>507</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>508</v>
       </c>
       <c r="D112" t="s">
@@ -6774,7 +6736,7 @@
         <v>526</v>
       </c>
       <c r="B116" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C116" t="s">
         <v>528</v>
@@ -6861,7 +6823,7 @@
         <v>542</v>
       </c>
       <c r="G119" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -6921,13 +6883,13 @@
         <v>554</v>
       </c>
       <c r="D122" t="s">
-        <v>1001</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
         <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G122" t="s">
         <v>13</v>
@@ -7091,7 +7053,7 @@
         <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G129" t="s">
         <v>621</v>
@@ -7137,7 +7099,7 @@
         <v>623</v>
       </c>
       <c r="F131" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G131" t="s">
         <v>135</v>
@@ -7229,7 +7191,7 @@
         <v>36</v>
       </c>
       <c r="F135" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G135" t="s">
         <v>13</v>
@@ -7252,7 +7214,7 @@
         <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G136" t="s">
         <v>107</v>
@@ -7275,7 +7237,7 @@
         <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G137" t="s">
         <v>13</v>
@@ -7298,7 +7260,7 @@
         <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G138" t="s">
         <v>107</v>
@@ -7609,7 +7571,7 @@
         <v>36</v>
       </c>
       <c r="F151" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G151" t="s">
         <v>135</v>
@@ -7635,7 +7597,7 @@
         <v>36</v>
       </c>
       <c r="F152" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G152" t="s">
         <v>135</v>
@@ -7661,10 +7623,10 @@
         <v>36</v>
       </c>
       <c r="F153" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G153" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H153" t="s">
         <v>853</v>
@@ -7791,7 +7753,7 @@
         <v>36</v>
       </c>
       <c r="F158" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G158" t="s">
         <v>18</v>
@@ -7817,7 +7779,7 @@
         <v>36</v>
       </c>
       <c r="F159" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G159" t="s">
         <v>135</v>
@@ -7843,7 +7805,7 @@
         <v>36</v>
       </c>
       <c r="F160" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -7869,7 +7831,7 @@
         <v>36</v>
       </c>
       <c r="F161" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="G161" t="s">
         <v>135</v>
@@ -7895,7 +7857,7 @@
         <v>36</v>
       </c>
       <c r="F162" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G162" t="s">
         <v>135</v>
@@ -7921,7 +7883,7 @@
         <v>36</v>
       </c>
       <c r="F163" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G163" t="s">
         <v>122</v>
@@ -8181,7 +8143,7 @@
         <v>36</v>
       </c>
       <c r="F173" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="G173" t="s">
         <v>135</v>
@@ -8207,7 +8169,7 @@
         <v>36</v>
       </c>
       <c r="F174" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G174" t="s">
         <v>135</v>
@@ -8259,7 +8221,7 @@
         <v>36</v>
       </c>
       <c r="F176" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G176" t="s">
         <v>122</v>
@@ -8337,7 +8299,7 @@
         <v>36</v>
       </c>
       <c r="F179" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G179" t="s">
         <v>13</v>
@@ -8363,7 +8325,7 @@
         <v>36</v>
       </c>
       <c r="F180" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G180" t="s">
         <v>135</v>
@@ -8389,7 +8351,7 @@
         <v>36</v>
       </c>
       <c r="F181" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G181" t="s">
         <v>135</v>
@@ -8441,10 +8403,10 @@
         <v>36</v>
       </c>
       <c r="F183" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G183" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H183" t="s">
         <v>880</v>
@@ -8493,7 +8455,7 @@
         <v>36</v>
       </c>
       <c r="F185" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G185" t="s">
         <v>135</v>
@@ -8519,7 +8481,7 @@
         <v>36</v>
       </c>
       <c r="F186" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G186" t="s">
         <v>135</v>
@@ -8571,7 +8533,7 @@
         <v>36</v>
       </c>
       <c r="F188" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G188" t="s">
         <v>13</v>
@@ -8597,7 +8559,7 @@
         <v>36</v>
       </c>
       <c r="F189" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G189" t="s">
         <v>13</v>
@@ -8649,7 +8611,7 @@
         <v>36</v>
       </c>
       <c r="F191" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G191" t="s">
         <v>198</v>
@@ -8675,7 +8637,7 @@
         <v>36</v>
       </c>
       <c r="F192" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G192" t="s">
         <v>13</v>
@@ -8756,7 +8718,7 @@
         <v>740</v>
       </c>
       <c r="G195" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H195" t="s">
         <v>888</v>
@@ -8848,7 +8810,7 @@
         <v>812</v>
       </c>
       <c r="C199" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D199" t="s">
         <v>11</v>
@@ -8857,7 +8819,7 @@
         <v>36</v>
       </c>
       <c r="F199" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G199" t="s">
         <v>198</v>
@@ -8909,7 +8871,7 @@
         <v>36</v>
       </c>
       <c r="F201" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G201" t="s">
         <v>442</v>
@@ -9140,7 +9102,7 @@
         <v>36</v>
       </c>
       <c r="F210" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G210" t="s">
         <v>453</v>
@@ -9244,7 +9206,7 @@
         <v>36</v>
       </c>
       <c r="F214" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G214" t="s">
         <v>453</v>
@@ -9426,7 +9388,7 @@
         <v>36</v>
       </c>
       <c r="F221" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G221" t="s">
         <v>107</v>
@@ -9455,7 +9417,7 @@
         <v>762</v>
       </c>
       <c r="G222" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H222" t="s">
         <v>909</v>
@@ -9478,7 +9440,7 @@
         <v>36</v>
       </c>
       <c r="F223" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G223" t="s">
         <v>107</v>
@@ -9530,7 +9492,7 @@
         <v>764</v>
       </c>
       <c r="G225" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H225" t="s">
         <v>903</v>
@@ -9553,7 +9515,7 @@
         <v>36</v>
       </c>
       <c r="F226" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G226" t="s">
         <v>13</v>
@@ -9579,7 +9541,7 @@
         <v>36</v>
       </c>
       <c r="F227" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G227" t="s">
         <v>322</v>
@@ -9605,7 +9567,7 @@
         <v>36</v>
       </c>
       <c r="F228" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G228" t="s">
         <v>322</v>
@@ -9766,13 +9728,13 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B235" t="s">
         <v>1002</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>1003</v>
-      </c>
-      <c r="C235" t="s">
-        <v>1004</v>
       </c>
       <c r="D235" t="s">
         <v>11</v>
@@ -9781,21 +9743,21 @@
         <v>370</v>
       </c>
       <c r="F235" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G235" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B236" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C236" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D236" t="s">
         <v>11</v>
@@ -9804,24 +9766,24 @@
         <v>12</v>
       </c>
       <c r="F236" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G236" t="s">
         <v>13</v>
       </c>
       <c r="H236" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B237" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C237" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D237" t="s">
         <v>11</v>
@@ -9830,24 +9792,24 @@
         <v>12</v>
       </c>
       <c r="F237" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G237" t="s">
         <v>338</v>
       </c>
       <c r="H237" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B238" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C238" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D238" t="s">
         <v>11</v>
@@ -9856,24 +9818,24 @@
         <v>12</v>
       </c>
       <c r="F238" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G238" t="s">
         <v>338</v>
       </c>
       <c r="H238" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B239" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C239" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D239" t="s">
         <v>11</v>
@@ -9882,24 +9844,24 @@
         <v>12</v>
       </c>
       <c r="F239" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G239" t="s">
         <v>13</v>
       </c>
       <c r="H239" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B240" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C240" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D240" t="s">
         <v>11</v>
@@ -9908,24 +9870,24 @@
         <v>12</v>
       </c>
       <c r="F240" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G240" t="s">
         <v>338</v>
       </c>
       <c r="H240" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B241" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C241" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D241" t="s">
         <v>11</v>
@@ -9934,24 +9896,24 @@
         <v>12</v>
       </c>
       <c r="F241" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G241" t="s">
         <v>338</v>
       </c>
       <c r="H241" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B242" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C242" t="s">
         <v>1088</v>
-      </c>
-      <c r="C242" t="s">
-        <v>1089</v>
       </c>
       <c r="D242" t="s">
         <v>11</v>
@@ -9960,24 +9922,24 @@
         <v>12</v>
       </c>
       <c r="F242" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G242" t="s">
         <v>338</v>
       </c>
       <c r="H242" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B243" t="s">
         <v>1087</v>
       </c>
-      <c r="B243" t="s">
-        <v>1088</v>
-      </c>
       <c r="C243" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D243" t="s">
         <v>11</v>
@@ -9986,24 +9948,24 @@
         <v>12</v>
       </c>
       <c r="F243" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G243" t="s">
         <v>338</v>
       </c>
       <c r="H243" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B244" t="s">
         <v>1080</v>
       </c>
-      <c r="B244" t="s">
-        <v>1081</v>
-      </c>
       <c r="C244" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D244" t="s">
         <v>11</v>
@@ -10012,24 +9974,24 @@
         <v>12</v>
       </c>
       <c r="F244" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G244" t="s">
         <v>13</v>
       </c>
       <c r="H244" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B245" t="s">
         <v>1106</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" t="s">
         <v>1107</v>
-      </c>
-      <c r="C245" t="s">
-        <v>1108</v>
       </c>
       <c r="D245" t="s">
         <v>11</v>
@@ -10038,7 +10000,7 @@
         <v>370</v>
       </c>
       <c r="F245" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G245" t="s">
         <v>135</v>
@@ -10046,13 +10008,13 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B246" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C246" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D246" t="s">
         <v>11</v>
@@ -10061,39 +10023,39 @@
         <v>12</v>
       </c>
       <c r="F246" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G246" t="s">
         <v>13</v>
       </c>
       <c r="H246" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D247" t="s">
         <v>1115</v>
-      </c>
-      <c r="B247" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C247" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D247" t="s">
-        <v>1116</v>
       </c>
       <c r="E247" t="s">
         <v>370</v>
       </c>
       <c r="F247" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G247" t="s">
         <v>13</v>
       </c>
       <c r="H247" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
   </sheetData>
@@ -10477,6 +10439,8 @@
     <hyperlink ref="B218" r:id="rId377" xr:uid="{53EA6710-D57A-7948-8604-F4386503E804}"/>
     <hyperlink ref="B228" r:id="rId378" xr:uid="{57B4B706-4868-C545-80F2-74B709A3780A}"/>
     <hyperlink ref="B232" r:id="rId379" xr:uid="{39FE5A64-9EF1-9042-9A70-7B7BEB2DFDBB}"/>
+    <hyperlink ref="B112" r:id="rId380" xr:uid="{915A67BF-94E0-1747-8636-55002B882CE3}"/>
+    <hyperlink ref="C112" r:id="rId381" xr:uid="{7E4123B9-237B-E641-BAEA-B5D1F2AD6CCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
